--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/results/Kommt nix bei rum.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/results/Kommt nix bei rum.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="53">
   <si>
     <t>firstName</t>
   </si>
@@ -124,7 +124,52 @@
     <t>Andrea</t>
   </si>
   <si>
+    <t>Bernd</t>
+  </si>
+  <si>
+    <t>Rosen</t>
+  </si>
+  <si>
     <t>checker</t>
+  </si>
+  <si>
+    <t>Berthold</t>
+  </si>
+  <si>
+    <t>Volkmer</t>
+  </si>
+  <si>
+    <t>Guido</t>
+  </si>
+  <si>
+    <t>Bexten</t>
+  </si>
+  <si>
+    <t>Harald</t>
+  </si>
+  <si>
+    <t>Collard</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Einzel</t>
+  </si>
+  <si>
+    <t>Gudrun</t>
+  </si>
+  <si>
+    <t>Grote</t>
+  </si>
+  <si>
+    <t>Ina</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Teller</t>
   </si>
 </sst>
 </file>
@@ -212,11 +257,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -285,7 +330,7 @@
         <v>0.0</v>
       </c>
       <c r="J2" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6">
@@ -321,7 +366,7 @@
         <v>0.0</v>
       </c>
       <c r="J3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6">
@@ -357,7 +402,7 @@
         <v>0.0</v>
       </c>
       <c r="J4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6">
@@ -393,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6">
@@ -414,26 +459,26 @@
         <v>12</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F6" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="G6" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H6" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="I6" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J6" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="6">
-        <v>0.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="7">
@@ -450,26 +495,26 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H7" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="I7" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="6">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="8">
@@ -486,26 +531,26 @@
         <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F8" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G8" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H8" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I8" s="3">
         <v>0.0</v>
       </c>
       <c r="J8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6">
-        <v>0.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="9">
@@ -522,26 +567,26 @@
         <v>12</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F9" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G9" s="3">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="H9" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I9" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="6">
-        <v>0.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="10">
@@ -558,26 +603,26 @@
         <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I10" s="3">
         <v>0.0</v>
       </c>
       <c r="J10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="6">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="11">
@@ -594,26 +639,26 @@
         <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I11" s="3">
         <v>0.0</v>
       </c>
       <c r="J11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="6">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="12">
@@ -630,26 +675,26 @@
         <v>12</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F12" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G12" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H12" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I12" s="3">
         <v>0.0</v>
       </c>
       <c r="J12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="13">
@@ -666,26 +711,26 @@
         <v>12</v>
       </c>
       <c r="E13" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F13" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G13" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H13" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I13" s="3">
         <v>0.0</v>
       </c>
       <c r="J13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="6">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="14">
@@ -702,26 +747,26 @@
         <v>12</v>
       </c>
       <c r="E14" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F14" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G14" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H14" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I14" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J14" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="6">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="15">
@@ -753,7 +798,7 @@
         <v>0.0</v>
       </c>
       <c r="J15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="6">
@@ -774,26 +819,26 @@
         <v>12</v>
       </c>
       <c r="E16" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F16" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G16" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H16" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I16" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="6">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="17">
@@ -825,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="J17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6">
@@ -846,26 +891,26 @@
         <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F18" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G18" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H18" s="3">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I18" s="3">
         <v>0.0</v>
       </c>
       <c r="J18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="6">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="19">
@@ -897,7 +942,7 @@
         <v>0.0</v>
       </c>
       <c r="J19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6">
@@ -933,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="6">
@@ -969,7 +1014,7 @@
         <v>0.0</v>
       </c>
       <c r="J21" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="6">
@@ -990,26 +1035,26 @@
         <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F22" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G22" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H22" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I22" s="3">
         <v>0.0</v>
       </c>
       <c r="J22" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="6">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="23">
@@ -1041,7 +1086,7 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="6">
@@ -1062,26 +1107,26 @@
         <v>12</v>
       </c>
       <c r="E24" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F24" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G24" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H24" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I24" s="3">
         <v>0.0</v>
       </c>
       <c r="J24" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="6">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="25">
@@ -1098,26 +1143,26 @@
         <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="F25" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G25" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H25" s="3">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I25" s="3">
         <v>0.0</v>
       </c>
       <c r="J25" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="6">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="26">
@@ -1134,26 +1179,26 @@
         <v>12</v>
       </c>
       <c r="E26" s="8">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F26" s="8">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G26" s="8">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="H26" s="8">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I26" s="8">
         <v>0.0</v>
       </c>
       <c r="J26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="6">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="27">
@@ -1185,7 +1230,7 @@
         <v>0.0</v>
       </c>
       <c r="J27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="6">
@@ -1206,26 +1251,26 @@
         <v>12</v>
       </c>
       <c r="E28" s="8">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F28" s="8">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G28" s="8">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H28" s="8">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I28" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J28" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="6">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,26 +1287,26 @@
         <v>12</v>
       </c>
       <c r="E29" s="8">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F29" s="8">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G29" s="8">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H29" s="8">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I29" s="8">
         <v>0.0</v>
       </c>
       <c r="J29" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="6">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="30">
@@ -1293,7 +1338,7 @@
         <v>0.0</v>
       </c>
       <c r="J30" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="6">
@@ -1329,7 +1374,7 @@
         <v>0.0</v>
       </c>
       <c r="J31" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="6">
@@ -1365,7 +1410,7 @@
         <v>0.0</v>
       </c>
       <c r="J32" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="6">
@@ -1386,26 +1431,26 @@
         <v>12</v>
       </c>
       <c r="E33" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F33" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G33" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H33" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I33" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J33" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="6">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="34">
@@ -1422,26 +1467,26 @@
         <v>12</v>
       </c>
       <c r="E34" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F34" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G34" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H34" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I34" s="3">
         <v>0.0</v>
       </c>
       <c r="J34" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="6">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="35">
@@ -1458,26 +1503,26 @@
         <v>12</v>
       </c>
       <c r="E35" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F35" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G35" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H35" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I35" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J35" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="6">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="36">
@@ -1494,26 +1539,26 @@
         <v>12</v>
       </c>
       <c r="E36" s="3">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F36" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G36" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H36" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I36" s="3">
         <v>0.0</v>
       </c>
       <c r="J36" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="6">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="37">
@@ -1530,26 +1575,26 @@
         <v>12</v>
       </c>
       <c r="E37" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F37" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G37" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H37" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I37" s="3">
         <v>0.0</v>
       </c>
       <c r="J37" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="6">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="38">
@@ -1566,26 +1611,26 @@
         <v>12</v>
       </c>
       <c r="E38" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="F38" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G38" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H38" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I38" s="3">
         <v>0.0</v>
       </c>
       <c r="J38" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="6">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="39">
@@ -1602,26 +1647,26 @@
         <v>12</v>
       </c>
       <c r="E39" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F39" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G39" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H39" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I39" s="3">
         <v>0.0</v>
       </c>
       <c r="J39" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="6">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="40">
@@ -1638,26 +1683,26 @@
         <v>12</v>
       </c>
       <c r="E40" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F40" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G40" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H40" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I40" s="3">
         <v>0.0</v>
       </c>
       <c r="J40" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="6">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="41">
@@ -1674,26 +1719,26 @@
         <v>12</v>
       </c>
       <c r="E41" s="3">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="F41" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G41" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="H41" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I41" s="3">
         <v>0.0</v>
       </c>
       <c r="J41" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="42">
@@ -1710,26 +1755,26 @@
         <v>12</v>
       </c>
       <c r="E42" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F42" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G42" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H42" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I42" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J42" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="6">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="43">
@@ -1746,26 +1791,26 @@
         <v>12</v>
       </c>
       <c r="E43" s="3">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="F43" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G43" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H43" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I43" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J43" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="6">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="44">
@@ -1782,26 +1827,26 @@
         <v>12</v>
       </c>
       <c r="E44" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F44" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="G44" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H44" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I44" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J44" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="6">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="45">
@@ -1818,26 +1863,26 @@
         <v>12</v>
       </c>
       <c r="E45" s="3">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="F45" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="G45" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H45" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I45" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J45" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="6">
-        <v>0.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="46">
@@ -1854,26 +1899,26 @@
         <v>12</v>
       </c>
       <c r="E46" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F46" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G46" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H46" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I46" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J46" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="6">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="47">
@@ -1890,26 +1935,26 @@
         <v>12</v>
       </c>
       <c r="E47" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F47" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G47" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="H47" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I47" s="3">
         <v>0.0</v>
       </c>
       <c r="J47" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="6">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="48">
@@ -1926,26 +1971,26 @@
         <v>12</v>
       </c>
       <c r="E48" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F48" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G48" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H48" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I48" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J48" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="6">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="49">
@@ -1962,26 +2007,26 @@
         <v>12</v>
       </c>
       <c r="E49" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F49" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G49" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H49" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I49" s="3">
         <v>0.0</v>
       </c>
       <c r="J49" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="6">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="50">
@@ -1998,25 +2043,25 @@
         <v>12</v>
       </c>
       <c r="E50" s="6">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F50" s="6">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G50" s="6">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H50" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I50" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J50" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="6">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="51">
@@ -2033,25 +2078,25 @@
         <v>12</v>
       </c>
       <c r="E51" s="6">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F51" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G51" s="6">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H51" s="6">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I51" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J51" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="6">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="52">
@@ -2068,25 +2113,25 @@
         <v>12</v>
       </c>
       <c r="E52" s="6">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F52" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G52" s="6">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H52" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I52" s="6">
         <v>0.0</v>
       </c>
       <c r="J52" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="6">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="53">
@@ -2118,7 +2163,7 @@
         <v>0.0</v>
       </c>
       <c r="J53" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="6">
         <v>0.0</v>
@@ -2138,25 +2183,25 @@
         <v>12</v>
       </c>
       <c r="E54" s="6">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F54" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G54" s="6">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H54" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I54" s="6">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J54" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="6">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="55">
@@ -2173,25 +2218,25 @@
         <v>12</v>
       </c>
       <c r="E55" s="6">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F55" s="6">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G55" s="6">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="H55" s="6">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="I55" s="6">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J55" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="6">
-        <v>0.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="56">
@@ -2208,25 +2253,25 @@
         <v>12</v>
       </c>
       <c r="E56" s="6">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F56" s="6">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G56" s="6">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="H56" s="6">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="I56" s="6">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J56" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="6">
-        <v>0.0</v>
+        <v>114.0</v>
       </c>
     </row>
     <row r="57">
@@ -2243,25 +2288,25 @@
         <v>12</v>
       </c>
       <c r="E57" s="6">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F57" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G57" s="6">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H57" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I57" s="6">
         <v>0.0</v>
       </c>
       <c r="J57" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="6">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="58">
@@ -2278,25 +2323,25 @@
         <v>12</v>
       </c>
       <c r="E58" s="6">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="F58" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G58" s="6">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H58" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I58" s="6">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J58" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="6">
-        <v>0.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="59">
@@ -2313,25 +2358,25 @@
         <v>12</v>
       </c>
       <c r="E59" s="6">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F59" s="6">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G59" s="6">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H59" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I59" s="6">
         <v>0.0</v>
       </c>
       <c r="J59" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="6">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="60">
@@ -2348,25 +2393,25 @@
         <v>12</v>
       </c>
       <c r="E60" s="6">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F60" s="6">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="G60" s="6">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H60" s="6">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I60" s="6">
         <v>0.0</v>
       </c>
       <c r="J60" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="6">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="61">
@@ -2383,25 +2428,25 @@
         <v>12</v>
       </c>
       <c r="E61" s="6">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F61" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G61" s="6">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H61" s="6">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="I61" s="6">
         <v>0.0</v>
       </c>
       <c r="J61" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="6">
-        <v>0.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="62">
@@ -2418,25 +2463,25 @@
         <v>12</v>
       </c>
       <c r="E62" s="6">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F62" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G62" s="6">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H62" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I62" s="6">
         <v>0.0</v>
       </c>
       <c r="J62" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="6">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="63">
@@ -2453,25 +2498,25 @@
         <v>12</v>
       </c>
       <c r="E63" s="6">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F63" s="6">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G63" s="6">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H63" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I63" s="6">
         <v>0.0</v>
       </c>
       <c r="J63" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="6">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="64">
@@ -2488,25 +2533,25 @@
         <v>12</v>
       </c>
       <c r="E64" s="6">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F64" s="6">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G64" s="6">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H64" s="6">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I64" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J64" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="6">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="65">
@@ -2538,242 +2583,290 @@
         <v>0.0</v>
       </c>
       <c r="J65" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
+      <c r="A66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C66" s="6">
         <v>1.0</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E66" s="6">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="F66" s="6">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="G66" s="6">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H66" s="6">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I66" s="6">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J66" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="6">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="67">
+      <c r="A67" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="C67" s="6">
         <v>1.0</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E67" s="6">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F67" s="6">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G67" s="6">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H67" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I67" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J67" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="6">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="68">
+      <c r="A68" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C68" s="6">
         <v>2.0</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E68" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F68" s="6">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="G68" s="6">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H68" s="6">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="I68" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J68" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="6">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="69">
+      <c r="A69" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C69" s="6">
         <v>2.0</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E69" s="6">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F69" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="G69" s="6">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H69" s="6">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="I69" s="6">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J69" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="6">
-        <v>0.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="70">
+      <c r="A70" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="C70" s="6">
         <v>3.0</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E70" s="6">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F70" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G70" s="6">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H70" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I70" s="6">
         <v>0.0</v>
       </c>
       <c r="J70" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="6">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="71">
+      <c r="A71" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="C71" s="6">
         <v>3.0</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E71" s="6">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F71" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G71" s="6">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H71" s="6">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I71" s="6">
         <v>0.0</v>
       </c>
       <c r="J71" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="6">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="72">
+      <c r="A72" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="C72" s="6">
         <v>4.0</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E72" s="6">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F72" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G72" s="6">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H72" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I72" s="6">
         <v>0.0</v>
       </c>
       <c r="J72" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="6">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="73">
+      <c r="A73" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C73" s="6">
         <v>4.0</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E73" s="6">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F73" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G73" s="6">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H73" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I73" s="6">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J73" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="6">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
   </sheetData>
